--- a/meta/8-8-1.xlsx
+++ b/meta/8-8-1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Глобальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760382BF-D2B0-4CCB-87D2-06573268A4DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,9 +110,6 @@
     <t xml:space="preserve">8.8. Защищать трудовые права и содействовать обеспечению надежных и безопасных условий работы для всех трудящихся, включая трудящихся-мигрантов, особенно женщин-мигрантов, и лиц, не имеющих стабильной занятости </t>
   </si>
   <si>
-    <t>8.8.1 Производственный травматизм со смертельным и не смертельным исходом в разбивке по полу и миграционному статусу</t>
-  </si>
-  <si>
     <t>Национальный статистический комитет КР (Отдел социальной статистики)</t>
   </si>
   <si>
@@ -124,9 +120,6 @@
   </si>
   <si>
     <t>(0312) 32 46 52</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>Частота смертельных и не смертельных профессиональных травм дает информацию о числе случаев смертельного и не смертельного профессионального травматизма за часы работы соответствующего населения за отчетный период. Это показатель риска получения смертельного или не смертельного профессионального травматизма в зависимости от продолжительности воздействия неблагоприятных факторов, связанных с работой.
@@ -197,17 +190,32 @@
 Закон Кыргызской Республики от 1 августа 2003 года №167 «Об охране труда»; 
 Постановление ПКР «Положение о расследовании и учете несчастных случаев на производстве» от 27 февраля 2001 года №64</t>
   </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8.1 Уровень производственного травматизма со смертельным и несмертельным исходом на 100 000 работников в разбивке по полу и миграционному статусу
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,32 +291,40 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{2B0BDA6B-BE90-4845-87F8-CCE8344B7048}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -585,11 +601,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456B38B4-5806-4830-983A-CA1AC6ED6A15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,8 +641,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
+      <c r="B4" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,8 +655,8 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>29</v>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -648,7 +664,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -656,7 +672,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -664,15 +680,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -686,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -694,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="317.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -702,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -716,7 +732,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -724,7 +740,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -738,7 +754,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
@@ -746,7 +762,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -766,7 +782,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -774,7 +790,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -788,11 +804,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
